--- a/data/XII-MIA-3.xlsx
+++ b/data/XII-MIA-3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tugas Akhir\Development\New Develop\Aplikasi-Penilaian-Otomatis-Esai-BI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EC744E-BCF7-4F08-A6B4-29F3F52C6AD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC9E9BC-1361-492E-862B-75CF74C9F65F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,9 +369,6 @@
     <t>Pertumbuhan adalah perubahan yang terjadi pada makhluk hidup yang meliputi pertumbuhan ukuran tubuh .Perkembangan adalah proses mencapai kematangan fungsi organisme</t>
   </si>
   <si>
-    <t>cahaya, berpengaruh pada proses fotosistesis.jika tidak ada cahaya maka proses foto sintesis akan terhambat. Namun, cahaya menghambat pertumbuhan. Air, mengaktifkan enzimatik, berpengaruh pada proses fotosistensis, bila tidak ada air maka tumbuhan akanmati karen atumbuhan kering dan tidak ada kelembapan. kosigen, untuk bernapas. suhum untuk menjaga kelembapan yang seimbang pada suhu optimum lima belas derajat sampai tiga puluh derajat.</t>
-  </si>
-  <si>
     <t>nutrisi, cahaya dapat digunakan dalam pembuatan kapas pada kacang. Air. Suhu.</t>
   </si>
   <si>
@@ -381,9 +378,6 @@
     <t>faktor eksternal, cahaya baik untuk tumbuhan sebagai hasil fotosintesis. Jika tidak ada cahaya tumbuhan tidak akan berfotosintesis. Air baik bagi tumbuhan karena jika tumbuhan tidak disirami air maka tumbuhan akan kering dan mati. Suhu baik bagi pertumbuhan, jika suhu tidak sesuai maka  tumbuhan akan mati, suhu yang terbaik adalah suhu optimum. nutrisi baik bagi kesuburan tanaman.</t>
   </si>
   <si>
-    <t>faktor eksternal, suhu jika terkena panas tanaman akan tumbuh. Cahaya melakukan fotosintesis, jika gelap tidak akn tumbuh. Air melakukan fotosintesis, jika tidak disiram akan layu dan jika disiram dengan air secukupnya akan tumbuh dengan bagus air senyawa utamam tumbuhan. kelmebapan bila kondisi lembap dapat dipertahankan maka bnayak air yang diserap tumbuhan dan lebih sedikit yang diuapkan.</t>
-  </si>
-  <si>
     <t>cahaya untuk fotosintesis. Air untuk fotosintesis, peran utama yang dibutuhkan. Suhu jika suhu tidak sesuai maka tanaman akan mati. Nutrisi untuk makanan.</t>
   </si>
   <si>
@@ -393,12 +387,6 @@
     <t>faktor eksternal, cahaya perannya membantu fotosintesis.temperatur perannya berpengaruh terhadap pertumbuhan tumbuhan. Air perannya sebagai membantu proses pertumbuhan akar dan batang. Udara perannya yaitu bila oksigen ada, berarti akan adapula karbondioksida dan tumbuhan memerlukan karbondoiksida untuk fotosintesis. semua faktor eksternal tersebut cahaya,air,temperatur, udrara berpengaruh terhadap proses fotosintesis tumbuhan, bila tidak ada salah satunya tumbuhan sempurna atau tidak berfotosintesis.</t>
   </si>
   <si>
-    <t>nutrisi atau makanan.keasaman tanah. Suhu mempengaruhi proses pertumbuhan tanmaan. Cahaya mempunyai pengaruh untuk berlangsungnya proses fotosintesis.</t>
-  </si>
-  <si>
-    <t>faktor eksternal air, berpengaruh terhadap tumbuhan karena jika tumbuhan tidak disirami air maka tumbuhan akan mati. Cahaya berpengaruh terhadap kesuburan tanaman. Suhuberpengaruh terhadap tumbuhan apabila suhu tidak sesuai maka tumbuhan akan mati.</t>
-  </si>
-  <si>
     <t>faktor eksternal, suhu,jika terkena panas tanaman akan tumbuh. Cahaya, mekakukan fotosintesis, jika gelap tidak akan tumbuh sempurna. Air, melakukan fotosintesis, jika tidak disiram aman layu, dan jika disiram dengan air secukupya akan tumbuh dengan bagus. air senyawa utama tumbuhan. kelembapan, bila kondisi lembap dapat dipertahankan maka banyak air yang diserap tumbuhan dan lebih sedikit yang diuapkan, kondisi ini mendukung aktivitas pemanjangan sel-sel.</t>
   </si>
   <si>
@@ -441,10 +429,22 @@
     <t>faktor eksternal, suhu, jika terkena panas tanaman akan tumbuh. Cahaya melakukan fotosintesis, jika gelap tidak akan tumbuh. Air melakukan fotosintesis. Kelembapan kondisi lembap bisa dipertahankan maka banyak air yang diserap tumbuhan dan lebih sedikit yang diuapkan.</t>
   </si>
   <si>
-    <t>cahay sangat berpengaruh dalam pertumbuhan dan berperan penting dalam proses fotosintesis, jika tidak ada cahaya maka tanaman tersebut tidak akan memiliki warna yang mencolok. Air sangat berperan dalam fotosintesis, jika tidak menggunakan air, maka tidak akan berhasil untuk mendapatkan makanan dan tanaman akan mati, menjaga kelembapan.</t>
-  </si>
-  <si>
     <t>cahaya sangat berpengaruh bagi tanaman saat berfotosintesis karena jika tidak ada cahaya atau gelap akan bertumbuh sangat pesat tetapi kurang normal.air sangat berpengaruh bagi tanaman karena merupakan sumber utama yang dibutuhkan. Suhu karena jika suhu tidak stabil maka pertumbuhanpun akan berpengaruh. nutrisi jika tumbuhan tidak ada nutrisi maka tumbuhan tersebut pun akan mati seperti cahaya, air, kalsium, sulfur, pasfor.</t>
+  </si>
+  <si>
+    <t>faktor eksternal, suhu jika terkena panas tanaman akan tumbuh. Cahaya melakukan fotosintesis, jika gelap tidak akn tumbuh. Air melakukan fotosintesis, jika tidak disiram akan layu dan jika disiram dengan air secukupnya akan tumbuh dengan bagus air senyawa utama tumbuhan. kelembapan bila kondisi lembap dapat dipertahankan maka banyak air yang diserap tumbuhan dan lebih sedikit yang diuapkan.</t>
+  </si>
+  <si>
+    <t>nutrisi atau makanan.keasaman tanah. Suhu mempengaruhi proses pertumbuhan tanaman. Cahaya mempunyai pengaruh untuk berlangsungnya proses fotosintesis.</t>
+  </si>
+  <si>
+    <t>faktor eksternal air, berpengaruh terhadap tumbuhan karena jika tumbuhan tidak disirami air maka tumbuhan akan mati. Cahaya berpengaruh terhadap kesuburan tanaman. Suhu berpengaruh terhadap tumbuhan apabila suhu tidak sesuai maka tumbuhan akan mati.</t>
+  </si>
+  <si>
+    <t>cahaya sangat berpengaruh dalam pertumbuhan dan berperan penting dalam proses fotosintesis, jika tidak ada cahaya maka tanaman tersebut tidak akan memiliki warna yang mencolok. Air sangat berperan dalam fotosintesis, jika tidak menggunakan air, maka tidak akan berhasil untuk mendapatkan makanan dan tanaman akan mati, menjaga kelembapan.</t>
+  </si>
+  <si>
+    <t>Suhu. Cahaya sangat berpengaruh terhadap tumbuhan karena cahaya sangat penting untuk melakukan fotosintesis, bila tidak ada cahaya makan fotosintesis tidak akan berjalan.air sangat berpengaruh bagi tumbuhan karena merupakan sumber utama yang dibutuhkan ol</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -725,9 +725,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -751,6 +748,17 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1157,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1172,13 +1180,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1318,486 +1326,542 @@
       <c r="A17" s="21">
         <v>1</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>2</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E18" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>3</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="34">
         <v>30</v>
       </c>
-      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>4</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>32</v>
+      <c r="B20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="22"/>
+        <v>30</v>
+      </c>
+      <c r="E20" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>5</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>35</v>
+      <c r="B21" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="E21" s="22">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>6</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22" s="22"/>
+      <c r="B22" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>7</v>
       </c>
-      <c r="B23" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
+      <c r="B23" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23"/>
       <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>8</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>43</v>
+      <c r="B24" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="E24" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>9</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>46</v>
+      <c r="B25" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="22"/>
+        <v>44</v>
+      </c>
+      <c r="E25" s="22">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>10</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>49</v>
+      <c r="B26" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="E26" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>11</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>52</v>
+      <c r="B27" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="22"/>
+        <v>50</v>
+      </c>
+      <c r="E27" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>12</v>
       </c>
-      <c r="B28" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>55</v>
+      <c r="B28" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="22"/>
+        <v>53</v>
+      </c>
+      <c r="E28" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>13</v>
       </c>
-      <c r="B29" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>58</v>
+      <c r="B29" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="22"/>
+        <v>56</v>
+      </c>
+      <c r="E29" s="22">
+        <v>35</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>14</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>61</v>
+      <c r="B30" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="E30" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>15</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>64</v>
+      <c r="B31" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="22"/>
+        <v>62</v>
+      </c>
+      <c r="E31" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>16</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>67</v>
+      <c r="B32" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="22"/>
+        <v>65</v>
+      </c>
+      <c r="E32" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>17</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>70</v>
+      <c r="B33" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="E33" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>18</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>73</v>
+      <c r="B34" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="E34" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>19</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>76</v>
+      <c r="B35" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="E35" s="22">
+        <v>20</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>20</v>
       </c>
-      <c r="B36" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>79</v>
+      <c r="B36" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="E36" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>21</v>
       </c>
-      <c r="B37" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
         <v>22</v>
       </c>
-      <c r="B38" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="22"/>
+      <c r="B38" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>23</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>88</v>
+      <c r="B39" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="22"/>
+        <v>86</v>
+      </c>
+      <c r="E39" s="22">
+        <v>35</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>24</v>
       </c>
-      <c r="B40" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>91</v>
+      <c r="B40" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="22"/>
+        <v>89</v>
+      </c>
+      <c r="E40" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>25</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41" s="22"/>
-    </row>
-    <row r="42" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>26</v>
       </c>
-      <c r="B42" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="23"/>
+      <c r="B42" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
     </row>
     <row r="43" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
         <v>27</v>
       </c>
-      <c r="B43" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="23"/>
-    </row>
-    <row r="44" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B43" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>28</v>
       </c>
-      <c r="B44" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="23"/>
-    </row>
-    <row r="45" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>29</v>
       </c>
-      <c r="B45" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="23"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B45" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
         <v>30</v>
       </c>
-      <c r="B46" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="23"/>
+      <c r="B46" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="23">
+        <v>30</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>31</v>
       </c>
-      <c r="B47" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>111</v>
-      </c>
+      <c r="B47" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="30"/>
       <c r="E47" s="23"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
         <v>32</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="31"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="30"/>
       <c r="E48" s="23"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
         <v>33</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="31"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="23"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
         <v>34</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="31"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="23"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2109,6 +2173,9 @@
       <c r="E127" s="25"/>
     </row>
   </sheetData>
+  <sortState ref="B18:E47">
+    <sortCondition ref="C18:C47"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
@@ -2138,6 +2205,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2145,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2160,13 +2228,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -2306,486 +2374,541 @@
       <c r="A17" s="21">
         <v>1</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="22"/>
+        <v>137</v>
+      </c>
+      <c r="E17" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>2</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="E18" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>3</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="22"/>
+      <c r="B19" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="34">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>4</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>32</v>
+      <c r="B20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="22"/>
+        <v>113</v>
+      </c>
+      <c r="E20" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>5</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>35</v>
+      <c r="B21" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="22"/>
+        <v>114</v>
+      </c>
+      <c r="E21" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>6</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22" s="22"/>
+      <c r="B22" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>7</v>
       </c>
-      <c r="B23" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>117</v>
-      </c>
+      <c r="B23" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23"/>
       <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>8</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>43</v>
+      <c r="B24" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="22"/>
+        <v>115</v>
+      </c>
+      <c r="E24" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>9</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>46</v>
+      <c r="B25" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="22"/>
+        <v>116</v>
+      </c>
+      <c r="E25" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>10</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>49</v>
+      <c r="B26" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="22"/>
+        <v>117</v>
+      </c>
+      <c r="E26" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>11</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>52</v>
+      <c r="B27" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="E27" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>12</v>
       </c>
-      <c r="B28" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>13</v>
       </c>
-      <c r="B29" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="22"/>
+      <c r="B29" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>14</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>61</v>
+      <c r="B30" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="E30" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>15</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>64</v>
+      <c r="B31" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="22"/>
+        <v>120</v>
+      </c>
+      <c r="E31" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>16</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>67</v>
+      <c r="B32" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="22"/>
+        <v>121</v>
+      </c>
+      <c r="E32" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>17</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>70</v>
+      <c r="B33" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="22"/>
+        <v>122</v>
+      </c>
+      <c r="E33" s="22">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>18</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>73</v>
+      <c r="B34" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="22"/>
+        <v>123</v>
+      </c>
+      <c r="E34" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>19</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>76</v>
+      <c r="B35" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="22"/>
+        <v>124</v>
+      </c>
+      <c r="E35" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>20</v>
       </c>
-      <c r="B36" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>79</v>
+      <c r="B36" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="E36" s="22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>21</v>
       </c>
-      <c r="B37" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
         <v>22</v>
       </c>
-      <c r="B38" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="22"/>
+      <c r="B38" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>23</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>88</v>
+      <c r="B39" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" s="22"/>
+        <v>128</v>
+      </c>
+      <c r="E39" s="22">
+        <v>35</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>24</v>
       </c>
-      <c r="B40" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>91</v>
+      <c r="B40" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="22"/>
+        <v>129</v>
+      </c>
+      <c r="E40" s="22">
+        <v>40</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>25</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41" s="22"/>
-    </row>
-    <row r="42" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>26</v>
       </c>
-      <c r="B42" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" s="23"/>
-    </row>
-    <row r="43" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B42" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+    </row>
+    <row r="43" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
         <v>27</v>
       </c>
-      <c r="B43" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" s="23"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>28</v>
       </c>
-      <c r="B44" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="23"/>
-    </row>
-    <row r="45" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="B44" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>29</v>
       </c>
-      <c r="B45" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45" s="23"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B45" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
         <v>30</v>
       </c>
-      <c r="B46" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="23"/>
+      <c r="B46" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="23">
+        <v>35</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>31</v>
       </c>
-      <c r="B47" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="23"/>
+      <c r="B47" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
         <v>32</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="31"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="30"/>
       <c r="E48" s="23"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
         <v>33</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="31"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="23"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
         <v>34</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="31"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="23"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3097,6 +3220,9 @@
       <c r="E127" s="25"/>
     </row>
   </sheetData>
+  <sortState ref="B18:E47">
+    <sortCondition ref="C18:C47"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
